--- a/RúbricaDeEvaluación.xlsx
+++ b/RúbricaDeEvaluación.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skull\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skull\Documents\UNIVERSITY\AREP+\Primer Tercio\Laboratorio 2\AREP-Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D2AA4-D163-410D-A569-9ECCA8AFFD4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8380F225-EF2F-4A16-9DF2-A50FBACE9454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30389B9F-C7D3-A542-9567-157FC0B6A65B}"/>
   </bookViews>
@@ -611,9 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7759D1B1-2861-2D40-A5C1-6BA06F856130}">
   <dimension ref="A3:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
